--- a/file/PostEvaluateTemplate.xlsx
+++ b/file/PostEvaluateTemplate.xlsx
@@ -113,7 +113,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>地源侧供水温差</t>
+      <t>地源侧回水温度</t>
     </r>
     <r>
       <rPr>
@@ -132,26 +132,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>从机组到地埋管</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>t</t>
+      <t>从地埋管到机组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)t</t>
     </r>
     <r>
       <rPr>
@@ -162,7 +152,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>g,i</t>
+      <t>g,o</t>
     </r>
     <r>
       <rPr>
@@ -194,7 +184,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>地源侧回水温度</t>
+      <t>用户侧回水温度</t>
     </r>
     <r>
       <rPr>
@@ -213,16 +203,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>从地埋管到机组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)t</t>
+      <t>从用户到机组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -233,10 +233,11 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>g,o</t>
-    </r>
-    <r>
-      <rPr>
+      <t>u,o</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
@@ -265,26 +266,76 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>用户侧回水温度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从用户到机组</t>
+      <t>用户侧流量</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>·h</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
     </r>
     <r>
       <rPr>
@@ -294,47 +345,6 @@
         <family val="1"/>
       </rPr>
       <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>u,o</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,7 +357,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>用户侧流量</t>
+      <t>地源侧流量</t>
     </r>
     <r>
       <rPr>
@@ -368,7 +378,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>u</t>
+      <t>g</t>
     </r>
     <r>
       <rPr>
@@ -438,17 +448,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>地源侧流量</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>G</t>
+      <t>机组总耗电</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -459,7 +469,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>g</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -478,45 +488,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>·h</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
+      <t>kW</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,7 +501,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>机组总耗电</t>
+      <t>用户侧水泵总耗电</t>
     </r>
     <r>
       <rPr>
@@ -550,26 +522,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>kW</t>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/kW</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,7 +544,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>用户侧水泵总耗电</t>
+      <t>水泵总耗电</t>
     </r>
     <r>
       <rPr>
@@ -603,7 +565,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>u</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -625,7 +587,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>水泵总耗电</t>
+      <t>地源侧水泵总耗电</t>
     </r>
     <r>
       <rPr>
@@ -646,7 +608,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
+      <t>g</t>
     </r>
     <r>
       <rPr>
@@ -668,7 +630,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>地源侧水泵总耗电</t>
+      <t>系统总耗电</t>
     </r>
     <r>
       <rPr>
@@ -679,17 +641,6 @@
         <family val="1"/>
       </rPr>
       <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>g</t>
     </r>
     <r>
       <rPr>
@@ -711,26 +662,75 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>系统总耗电</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/kW</t>
+      <t>地源侧供水温度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从机组到地埋管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>g,i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,34 +1157,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
